--- a/P07/docs/MASS_Scrum.xlsx
+++ b/P07/docs/MASS_Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P06\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P07\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B1F651-9AAD-4ED0-8F6E-4F70F64FB362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FB0D20-C47A-466B-AB35-5BC558F5D449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="175">
   <si>
     <t>Product Name:</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t xml:space="preserve">Inducle the image used and give Credit to the creator and the websites </t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>clear the new shelther</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2064,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2132,19 +2141,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -2203,7 +2212,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2277,7 +2286,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3523,8 +3532,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -4318,8 +4327,12 @@
       <c r="E35" s="15">
         <v>8</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="F35" s="16">
+        <v>3</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="H35" s="17" t="s">
         <v>73</v>
       </c>
@@ -4347,8 +4360,12 @@
       <c r="E36" s="15">
         <v>8</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="F36" s="16">
+        <v>3</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="H36" s="17" t="s">
         <v>73</v>
       </c>
@@ -4376,8 +4393,12 @@
       <c r="E37" s="15">
         <v>5</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="F37" s="16">
+        <v>3</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="H37" s="17" t="s">
         <v>81</v>
       </c>
@@ -4405,8 +4426,12 @@
       <c r="E38" s="15">
         <v>5</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="F38" s="16">
+        <v>3</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="H38" s="17" t="s">
         <v>81</v>
       </c>
@@ -4434,8 +4459,12 @@
       <c r="E39" s="15">
         <v>3</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="16">
+        <v>3</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="H39" s="17" t="s">
         <v>81</v>
       </c>
@@ -8458,7 +8487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -9555,8 +9584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -9661,7 +9690,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -9676,7 +9705,7 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -9694,7 +9723,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -9712,7 +9741,7 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -9730,7 +9759,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -9752,7 +9781,7 @@
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -9830,7 +9859,9 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="D17" s="40" t="s">
         <v>144</v>
       </c>
@@ -9840,7 +9871,9 @@
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="D18" s="39"/>
       <c r="E18" s="41"/>
     </row>
@@ -9856,9 +9889,15 @@
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">

--- a/P07/docs/MASS_Scrum.xlsx
+++ b/P07/docs/MASS_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P07\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FB0D20-C47A-466B-AB35-5BC558F5D449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB625A-7053-45FD-A0C7-0F7C6433DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="187">
   <si>
     <t>Product Name:</t>
   </si>
@@ -708,6 +708,42 @@
   </si>
   <si>
     <t>clear the new shelther</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 3</t>
+  </si>
+  <si>
+    <t>In Test</t>
+  </si>
+  <si>
+    <t>shelther save name and arraylist size</t>
+  </si>
+  <si>
+    <t>animal save name, age and gender</t>
+  </si>
+  <si>
+    <t>Dog save breed and Lizard save bread</t>
+  </si>
+  <si>
+    <t>onclickopen bufferedread  on Shelther, Dog, Lizard,Animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jfilechose </t>
+  </si>
+  <si>
+    <t>magic cookei and version</t>
+  </si>
+  <si>
+    <t>try and catch</t>
+  </si>
+  <si>
+    <t>Mass.onSaveAsClick</t>
+  </si>
+  <si>
+    <t>Shelter.setFilename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding JFileChooser </t>
   </si>
 </sst>
 </file>
@@ -1225,13 +1261,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,25 +2177,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -3532,8 +3568,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3791,11 +3827,11 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 3")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="2"/>
@@ -3815,7 +3851,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3835,7 +3871,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -4331,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>73</v>
@@ -4364,7 +4400,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>73</v>
@@ -4397,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>81</v>
@@ -4430,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>81</v>
@@ -4463,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>81</v>
@@ -8487,7 +8523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -9584,8 +9620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -9690,7 +9726,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -9705,7 +9741,7 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -9723,7 +9759,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -9741,7 +9777,7 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -9759,7 +9795,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -9777,7 +9813,7 @@
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -9795,7 +9831,7 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -9817,7 +9853,7 @@
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -9863,9 +9899,11 @@
         <v>72</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="41"/>
+        <v>177</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
@@ -9874,16 +9912,26 @@
       <c r="B18" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
@@ -9903,65 +9951,113 @@
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
+      <c r="B23" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="B24" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
+      <c r="B28" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">

--- a/P07/docs/MASS_Scrum.xlsx
+++ b/P07/docs/MASS_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P07\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB625A-7053-45FD-A0C7-0F7C6433DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBD16D3-017D-4DA1-BDB3-9D36C9ABF6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="185">
   <si>
     <t>Product Name:</t>
   </si>
@@ -701,9 +701,6 @@
     <t xml:space="preserve">Inducle the image used and give Credit to the creator and the websites </t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
   </si>
   <si>
     <t>Finished in Sprint 3</t>
-  </si>
-  <si>
-    <t>In Test</t>
   </si>
   <si>
     <t>shelther save name and arraylist size</t>
@@ -1261,13 +1255,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,7 +2192,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3568,8 +3562,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3827,11 +3821,11 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 3")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="2"/>
@@ -3851,7 +3845,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3871,7 +3865,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -4367,7 +4361,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>73</v>
@@ -4400,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>73</v>
@@ -4433,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>81</v>
@@ -4466,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>81</v>
@@ -4499,7 +4493,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>81</v>
@@ -9620,8 +9614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -9849,11 +9843,11 @@
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -9899,7 +9893,7 @@
         <v>72</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>168</v>
@@ -9913,7 +9907,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>168</v>
@@ -9927,7 +9921,7 @@
         <v>72</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>168</v>
@@ -9938,10 +9932,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="39" t="s">
         <v>173</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>174</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>153</v>
@@ -9955,7 +9949,7 @@
         <v>77</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>168</v>
@@ -9969,7 +9963,7 @@
         <v>77</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>168</v>
@@ -9983,7 +9977,7 @@
         <v>77</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>168</v>
@@ -9997,7 +9991,7 @@
         <v>77</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E24" s="41" t="s">
         <v>168</v>
@@ -10011,7 +10005,7 @@
         <v>85</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E25" s="41" t="s">
         <v>168</v>
@@ -10025,10 +10019,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10039,7 +10033,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>168</v>
